--- a/masks/code/TKIDModule_spreadsheet_20200709_AW_special.xlsx
+++ b/masks/code/TKIDModule_spreadsheet_20200709_AW_special.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="292">
   <si>
     <t>AGA Marks</t>
   </si>
@@ -1286,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AC156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView tabSelected="1" topLeftCell="Q6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q56" sqref="A56:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4788,9 +4788,6 @@
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
-      <c r="AC53" s="2" t="s">
-        <v>276</v>
-      </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
@@ -4868,7 +4865,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
       <c r="AC54" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.45">
@@ -4946,7 +4943,9 @@
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
-      <c r="AC55" s="2"/>
+      <c r="AC55" s="2" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
@@ -5102,7 +5101,9 @@
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
-      <c r="AC57" s="1"/>
+      <c r="AC57" s="2" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
@@ -7023,7 +7024,6 @@
       <c r="Z82" s="1"/>
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
-      <c r="AC82" s="1"/>
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
@@ -7101,7 +7101,7 @@
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
       <c r="AC83" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.45">
@@ -7180,7 +7180,7 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
       <c r="AC84" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.45">
@@ -12360,7 +12360,6 @@
       <c r="Z151" s="1"/>
       <c r="AA151" s="1"/>
       <c r="AB151" s="1"/>
-      <c r="AC151" s="1"/>
     </row>
     <row r="152" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
@@ -12438,7 +12437,7 @@
       <c r="AA152" s="1"/>
       <c r="AB152" s="1"/>
       <c r="AC152" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="153" spans="1:29" x14ac:dyDescent="0.45">
@@ -12517,7 +12516,7 @@
       <c r="AA153" s="1"/>
       <c r="AB153" s="1"/>
       <c r="AC153" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="154" spans="1:29" x14ac:dyDescent="0.45">

--- a/masks/code/TKIDModule_spreadsheet_20200709_AW_special.xlsx
+++ b/masks/code/TKIDModule_spreadsheet_20200709_AW_special.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="292">
   <si>
     <t>AGA Marks</t>
   </si>
@@ -1286,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AC156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q56" sqref="A56:XFD57"/>
+    <sheetView tabSelected="1" topLeftCell="Q135" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC75" sqref="AC75:AC76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4246,7 +4246,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
       <c r="AC46" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.45">
@@ -4325,7 +4325,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
       <c r="AC47" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.45">
@@ -4403,7 +4403,6 @@
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
-      <c r="AC48" s="2"/>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
@@ -5257,7 +5256,6 @@
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
-      <c r="AC59" s="1"/>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
@@ -5334,7 +5332,9 @@
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
-      <c r="AC60" s="1"/>
+      <c r="AC60" s="2" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
@@ -5411,7 +5411,9 @@
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
-      <c r="AC61" s="1"/>
+      <c r="AC61" s="2" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
@@ -5639,7 +5641,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
       <c r="AC64" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.45">
@@ -5718,7 +5720,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
       <c r="AC65" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.45">
@@ -6104,7 +6106,9 @@
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
-      <c r="AC70" s="1"/>
+      <c r="AC70" s="2" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
@@ -6181,7 +6185,9 @@
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
-      <c r="AC71" s="1"/>
+      <c r="AC71" s="2" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
@@ -6257,7 +6263,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
       <c r="AC72" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.45">
@@ -6334,7 +6340,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
       <c r="AC73" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.45">
@@ -6486,7 +6492,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
       <c r="AC75" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.45">
@@ -6563,7 +6569,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
       <c r="AC76" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.45">
